--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-07_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-07_beg.xlsx
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]    …!!
+    <t xml:space="preserve">[name="Nearl"]    ...!!
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’m fine… It’s no big deal.;…;Thanks for saving me, Nearl.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="I'm fine... It's no big deal.;...;Thanks for saving me, Nearl.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]    Arghh…!!
+    <t xml:space="preserve">[name="Reunion Member"]    Arghh...!!
 </t>
   </si>
   <si>
